--- a/etl/exercices/exercice2/rapport.xlsx
+++ b/etl/exercices/exercice2/rapport.xlsx
@@ -428,6 +428,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="000000FF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -939,6 +940,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00FFFFFF"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -980,6 +982,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="00F00020"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
